--- a/test/TestFile/testData/excel2json.xlsx
+++ b/test/TestFile/testData/excel2json.xlsx
@@ -1,143 +1,504 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="15855" windowHeight="8775"/>
+    <workbookView windowWidth="21930" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="EN" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>EN</t>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
     <t>我们不"一样</t>
   </si>
   <si>
+    <t>We are not ' the " same</t>
+  </si>
+  <si>
     <t>这条肯定不能被提取</t>
   </si>
   <si>
+    <t>This Word can not be selected.</t>
+  </si>
+  <si>
+    <t>宏控制词条</t>
+  </si>
+  <si>
     <t>宏不一样所以肯定被提取</t>
   </si>
   <si>
+    <t>CONFIG is Diff, so it can be selected.</t>
+  </si>
+  <si>
     <t>没有对应的结束宏，可以被提取</t>
   </si>
   <si>
+    <t>single Config has no use</t>
+  </si>
+  <si>
+    <t>符号提(')取验(")证项</t>
+  </si>
+  <si>
+    <t>change line and tabs</t>
+  </si>
+  <si>
+    <t>时间组一：</t>
+  </si>
+  <si>
+    <t>time group:</t>
+  </si>
+  <si>
     <t>类型：</t>
   </si>
   <si>
+    <t>type:</t>
+  </si>
+  <si>
     <t>系统日志</t>
   </si>
   <si>
-    <t>错误日志</t>
-  </si>
-  <si>
-    <t>Log Content</t>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We are not ' the " same</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This Word can not be selected.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG is Diff, so it can be selected.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single Config has no use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号提(')取验(")证项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change line and tabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time group:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>system log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间组一：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏控制词条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack
+ Log        </t>
   </si>
   <si>
     <t>攻击
 日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack
- Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误日志</t>
+  </si>
+  <si>
+    <t>error log</t>
+  </si>
+  <si>
+    <t>Log Content</t>
+  </si>
+  <si>
+    <t>日志内容</t>
+  </si>
+  <si>
+    <t>Click \"More\" below to explore more functions of \f\n\r\t\v\n the router.\f\n\r\t\v</t>
+  </si>
+  <si>
+    <t>Click \"More\" below to explore more functions of the router.</t>
+  </si>
+  <si>
+    <t>Can't contain ~;'&amp;\"% and space and Chinese character.</t>
+  </si>
+  <si>
+    <t>Add '+country code' before the ISP's Message Center Number.</t>
+  </si>
+  <si>
+    <t>换行符。
+ ss</t>
+  </si>
+  <si>
+    <t>分页符
+S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+分栏符</t>
+  </si>
+  <si>
+    <t>Access type through which an internet user accesses the router remotely. 
+-IP Address: Use the WAN IP address of the router plus the port number to manage the router. This access type allows an internet user to access the web UI of the router by entering "the WAN IP address of the router to be managed remotely:port number".
+-Domain Name: If the Remote Access Type is set to Domain Name, the router automatically generates a unique domain name that can be used to manage the router remotely.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF00ABC1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFFFCC95"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -145,94 +506,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -557,127 +1143,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="28.5" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
+    </row>
+    <row r="16" ht="54" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="36" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" ht="57" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" ht="171" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1 A11:A12 A3:A4 A6:A7 A14:A15" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>